--- a/data/유가증권.xlsx
+++ b/data/유가증권.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webzen\finance\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2328CB66-86CB-4F0C-A24D-D85B8E307C02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27705" windowHeight="14190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27705" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유가증권" sheetId="1" r:id="rId1"/>
@@ -11941,7 +11947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12629,6 +12635,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -12676,7 +12685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12709,9 +12718,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12744,6 +12770,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12919,23 +12962,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I789"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12964,7 +13007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -12993,7 +13036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -13022,7 +13065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -13051,7 +13094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -13080,7 +13123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -13109,7 +13152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -13138,7 +13181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -13167,7 +13210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -13196,7 +13239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -13225,7 +13268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -13254,7 +13297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -13283,7 +13326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -13312,7 +13355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -13341,7 +13384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -13368,7 +13411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -13397,7 +13440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -13426,7 +13469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>105</v>
       </c>
@@ -13455,7 +13498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>112</v>
       </c>
@@ -13484,7 +13527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>118</v>
       </c>
@@ -13513,7 +13556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>124</v>
       </c>
@@ -13542,7 +13585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>130</v>
       </c>
@@ -13569,7 +13612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>135</v>
       </c>
@@ -13598,7 +13641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>140</v>
       </c>
@@ -13627,7 +13670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>146</v>
       </c>
@@ -13656,7 +13699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>153</v>
       </c>
@@ -13685,7 +13728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>159</v>
       </c>
@@ -13714,7 +13757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>164</v>
       </c>
@@ -13743,7 +13786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -13772,7 +13815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>175</v>
       </c>
@@ -13801,7 +13844,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>182</v>
       </c>
@@ -13830,7 +13873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>187</v>
       </c>
@@ -13859,7 +13902,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
@@ -13888,7 +13931,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>200</v>
       </c>
@@ -13917,7 +13960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>206</v>
       </c>
@@ -13946,7 +13989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>212</v>
       </c>
@@ -13975,7 +14018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -14004,7 +14047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>223</v>
       </c>
@@ -14031,7 +14074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>229</v>
       </c>
@@ -14060,7 +14103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>234</v>
       </c>
@@ -14089,7 +14132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>240</v>
       </c>
@@ -14118,7 +14161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>246</v>
       </c>
@@ -14147,7 +14190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>252</v>
       </c>
@@ -14176,7 +14219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
@@ -14205,7 +14248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -14234,7 +14277,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>268</v>
       </c>
@@ -14261,7 +14304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>272</v>
       </c>
@@ -14288,7 +14331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>276</v>
       </c>
@@ -14317,7 +14360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>281</v>
       </c>
@@ -14346,7 +14389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>286</v>
       </c>
@@ -14375,7 +14418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>291</v>
       </c>
@@ -14404,7 +14447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>296</v>
       </c>
@@ -14433,7 +14476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>302</v>
       </c>
@@ -14462,7 +14505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>308</v>
       </c>
@@ -14491,7 +14534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>313</v>
       </c>
@@ -14520,7 +14563,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>319</v>
       </c>
@@ -14549,7 +14592,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>326</v>
       </c>
@@ -14578,7 +14621,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>331</v>
       </c>
@@ -14607,7 +14650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>336</v>
       </c>
@@ -14636,7 +14679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>342</v>
       </c>
@@ -14665,7 +14708,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>349</v>
       </c>
@@ -14694,7 +14737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>354</v>
       </c>
@@ -14723,7 +14766,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>360</v>
       </c>
@@ -14752,7 +14795,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>366</v>
       </c>
@@ -14781,7 +14824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>371</v>
       </c>
@@ -14810,7 +14853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>376</v>
       </c>
@@ -14839,7 +14882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>382</v>
       </c>
@@ -14868,7 +14911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>388</v>
       </c>
@@ -14897,7 +14940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>393</v>
       </c>
@@ -14926,7 +14969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>399</v>
       </c>
@@ -14955,7 +14998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>405</v>
       </c>
@@ -14984,7 +15027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>409</v>
       </c>
@@ -15013,7 +15056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>413</v>
       </c>
@@ -15042,7 +15085,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>418</v>
       </c>
@@ -15071,7 +15114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>423</v>
       </c>
@@ -15100,7 +15143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>429</v>
       </c>
@@ -15129,7 +15172,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>435</v>
       </c>
@@ -15158,7 +15201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>441</v>
       </c>
@@ -15187,7 +15230,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>446</v>
       </c>
@@ -15216,7 +15259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>452</v>
       </c>
@@ -15245,7 +15288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>458</v>
       </c>
@@ -15274,7 +15317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>464</v>
       </c>
@@ -15303,7 +15346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>469</v>
       </c>
@@ -15332,7 +15375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>474</v>
       </c>
@@ -15361,7 +15404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>479</v>
       </c>
@@ -15390,7 +15433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>483</v>
       </c>
@@ -15419,7 +15462,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>488</v>
       </c>
@@ -15448,7 +15491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>493</v>
       </c>
@@ -15477,7 +15520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>498</v>
       </c>
@@ -15506,7 +15549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>503</v>
       </c>
@@ -15535,7 +15578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>508</v>
       </c>
@@ -15564,7 +15607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>513</v>
       </c>
@@ -15593,7 +15636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>519</v>
       </c>
@@ -15622,7 +15665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>524</v>
       </c>
@@ -15651,7 +15694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>529</v>
       </c>
@@ -15680,7 +15723,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>534</v>
       </c>
@@ -15705,7 +15748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>538</v>
       </c>
@@ -15734,7 +15777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>544</v>
       </c>
@@ -15759,7 +15802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>547</v>
       </c>
@@ -15788,7 +15831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>552</v>
       </c>
@@ -15817,7 +15860,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>557</v>
       </c>
@@ -15846,7 +15889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>563</v>
       </c>
@@ -15875,7 +15918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>568</v>
       </c>
@@ -15902,7 +15945,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>572</v>
       </c>
@@ -15931,7 +15974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>577</v>
       </c>
@@ -15958,7 +16001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>581</v>
       </c>
@@ -15987,7 +16030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>585</v>
       </c>
@@ -16016,7 +16059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>590</v>
       </c>
@@ -16041,7 +16084,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>593</v>
       </c>
@@ -16070,7 +16113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>599</v>
       </c>
@@ -16095,7 +16138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>601</v>
       </c>
@@ -16124,7 +16167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>606</v>
       </c>
@@ -16149,7 +16192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>609</v>
       </c>
@@ -16178,7 +16221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>614</v>
       </c>
@@ -16207,7 +16250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>619</v>
       </c>
@@ -16236,7 +16279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>624</v>
       </c>
@@ -16265,7 +16308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>630</v>
       </c>
@@ -16294,7 +16337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>635</v>
       </c>
@@ -16323,7 +16366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>641</v>
       </c>
@@ -16348,7 +16391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>645</v>
       </c>
@@ -16377,7 +16420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>650</v>
       </c>
@@ -16406,7 +16449,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>656</v>
       </c>
@@ -16435,7 +16478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>662</v>
       </c>
@@ -16462,7 +16505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>666</v>
       </c>
@@ -16491,7 +16534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>672</v>
       </c>
@@ -16520,7 +16563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>678</v>
       </c>
@@ -16549,7 +16592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>683</v>
       </c>
@@ -16578,7 +16621,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>688</v>
       </c>
@@ -16607,7 +16650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>693</v>
       </c>
@@ -16636,7 +16679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>697</v>
       </c>
@@ -16665,7 +16708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>702</v>
       </c>
@@ -16694,7 +16737,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>707</v>
       </c>
@@ -16723,7 +16766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>712</v>
       </c>
@@ -16752,7 +16795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>718</v>
       </c>
@@ -16781,7 +16824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>723</v>
       </c>
@@ -16810,7 +16853,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>728</v>
       </c>
@@ -16839,7 +16882,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>733</v>
       </c>
@@ -16866,7 +16909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>738</v>
       </c>
@@ -16895,7 +16938,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>743</v>
       </c>
@@ -16924,7 +16967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>749</v>
       </c>
@@ -16953,7 +16996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>754</v>
       </c>
@@ -16982,7 +17025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>759</v>
       </c>
@@ -17011,7 +17054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>764</v>
       </c>
@@ -17040,7 +17083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>770</v>
       </c>
@@ -17069,7 +17112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>775</v>
       </c>
@@ -17098,7 +17141,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>780</v>
       </c>
@@ -17127,7 +17170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>785</v>
       </c>
@@ -17156,7 +17199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>791</v>
       </c>
@@ -17185,7 +17228,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>797</v>
       </c>
@@ -17214,7 +17257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>802</v>
       </c>
@@ -17243,7 +17286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>807</v>
       </c>
@@ -17272,7 +17315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>813</v>
       </c>
@@ -17301,7 +17344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>819</v>
       </c>
@@ -17328,7 +17371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>822</v>
       </c>
@@ -17357,7 +17400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>827</v>
       </c>
@@ -17386,7 +17429,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>833</v>
       </c>
@@ -17415,7 +17458,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>839</v>
       </c>
@@ -17444,7 +17487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>844</v>
       </c>
@@ -17473,7 +17516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>848</v>
       </c>
@@ -17500,7 +17543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>852</v>
       </c>
@@ -17529,7 +17572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>857</v>
       </c>
@@ -17558,7 +17601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>862</v>
       </c>
@@ -17587,7 +17630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>868</v>
       </c>
@@ -17616,7 +17659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>873</v>
       </c>
@@ -17645,7 +17688,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>879</v>
       </c>
@@ -17672,7 +17715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>883</v>
       </c>
@@ -17701,7 +17744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>888</v>
       </c>
@@ -17730,7 +17773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>894</v>
       </c>
@@ -17757,7 +17800,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>898</v>
       </c>
@@ -17784,7 +17827,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>902</v>
       </c>
@@ -17811,7 +17854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>907</v>
       </c>
@@ -17840,7 +17883,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>912</v>
       </c>
@@ -17869,7 +17912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>918</v>
       </c>
@@ -17898,7 +17941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>923</v>
       </c>
@@ -17927,7 +17970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>928</v>
       </c>
@@ -17956,7 +17999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>932</v>
       </c>
@@ -17985,7 +18028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>936</v>
       </c>
@@ -18014,7 +18057,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>942</v>
       </c>
@@ -18043,7 +18086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>947</v>
       </c>
@@ -18072,7 +18115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>953</v>
       </c>
@@ -18099,7 +18142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>957</v>
       </c>
@@ -18128,7 +18171,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>962</v>
       </c>
@@ -18157,7 +18200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>967</v>
       </c>
@@ -18186,7 +18229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>973</v>
       </c>
@@ -18215,7 +18258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>978</v>
       </c>
@@ -18244,7 +18287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>983</v>
       </c>
@@ -18273,7 +18316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>988</v>
       </c>
@@ -18302,7 +18345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>994</v>
       </c>
@@ -18329,7 +18372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>998</v>
       </c>
@@ -18358,7 +18401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>1003</v>
       </c>
@@ -18387,7 +18430,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>1008</v>
       </c>
@@ -18416,7 +18459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>1012</v>
       </c>
@@ -18445,7 +18488,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>1017</v>
       </c>
@@ -18470,7 +18513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>1021</v>
       </c>
@@ -18497,7 +18540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>1025</v>
       </c>
@@ -18526,7 +18569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>1030</v>
       </c>
@@ -18555,7 +18598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>1035</v>
       </c>
@@ -18584,7 +18627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>1041</v>
       </c>
@@ -18611,7 +18654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>1046</v>
       </c>
@@ -18638,7 +18681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>1050</v>
       </c>
@@ -18667,7 +18710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>1056</v>
       </c>
@@ -18696,7 +18739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>1061</v>
       </c>
@@ -18725,7 +18768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>1066</v>
       </c>
@@ -18754,7 +18797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>1070</v>
       </c>
@@ -18783,7 +18826,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>1075</v>
       </c>
@@ -18812,7 +18855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>1080</v>
       </c>
@@ -18839,7 +18882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>1085</v>
       </c>
@@ -18866,7 +18909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>1087</v>
       </c>
@@ -18895,7 +18938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>1092</v>
       </c>
@@ -18924,7 +18967,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>1098</v>
       </c>
@@ -18953,7 +18996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>1103</v>
       </c>
@@ -18982,7 +19025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>1108</v>
       </c>
@@ -19009,7 +19052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>1113</v>
       </c>
@@ -19038,7 +19081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>1119</v>
       </c>
@@ -19067,7 +19110,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>1124</v>
       </c>
@@ -19096,7 +19139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>1129</v>
       </c>
@@ -19125,7 +19168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>1134</v>
       </c>
@@ -19154,7 +19197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>1139</v>
       </c>
@@ -19183,7 +19226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>1145</v>
       </c>
@@ -19212,7 +19255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>1150</v>
       </c>
@@ -19241,7 +19284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>1155</v>
       </c>
@@ -19270,7 +19313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19297,7 +19340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>1162</v>
       </c>
@@ -19326,7 +19369,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>1167</v>
       </c>
@@ -19355,7 +19398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>1173</v>
       </c>
@@ -19382,7 +19425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>1177</v>
       </c>
@@ -19411,7 +19454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>1182</v>
       </c>
@@ -19440,7 +19483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>1187</v>
       </c>
@@ -19469,7 +19512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>1192</v>
       </c>
@@ -19498,7 +19541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>1198</v>
       </c>
@@ -19527,7 +19570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>1202</v>
       </c>
@@ -19556,7 +19599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>1207</v>
       </c>
@@ -19585,7 +19628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>1212</v>
       </c>
@@ -19614,7 +19657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>1217</v>
       </c>
@@ -19643,7 +19686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>1221</v>
       </c>
@@ -19672,7 +19715,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>1226</v>
       </c>
@@ -19701,7 +19744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>1231</v>
       </c>
@@ -19728,7 +19771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>1235</v>
       </c>
@@ -19757,7 +19800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>1240</v>
       </c>
@@ -19786,7 +19829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>1245</v>
       </c>
@@ -19815,7 +19858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>1250</v>
       </c>
@@ -19844,7 +19887,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>1255</v>
       </c>
@@ -19873,7 +19916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>1260</v>
       </c>
@@ -19902,7 +19945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>1265</v>
       </c>
@@ -19931,7 +19974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>1270</v>
       </c>
@@ -19960,7 +20003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>1275</v>
       </c>
@@ -19989,7 +20032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>1281</v>
       </c>
@@ -20016,7 +20059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>1285</v>
       </c>
@@ -20045,7 +20088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20074,7 +20117,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>1296</v>
       </c>
@@ -20103,7 +20146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>1301</v>
       </c>
@@ -20132,7 +20175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>1306</v>
       </c>
@@ -20161,7 +20204,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>1311</v>
       </c>
@@ -20190,7 +20233,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>1316</v>
       </c>
@@ -20217,7 +20260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>1320</v>
       </c>
@@ -20244,7 +20287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>1322</v>
       </c>
@@ -20271,7 +20314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>1325</v>
       </c>
@@ -20300,7 +20343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>1330</v>
       </c>
@@ -20329,7 +20372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>1335</v>
       </c>
@@ -20358,7 +20401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>1341</v>
       </c>
@@ -20387,7 +20430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>1346</v>
       </c>
@@ -20416,7 +20459,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>1351</v>
       </c>
@@ -20445,7 +20488,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>1356</v>
       </c>
@@ -20474,7 +20517,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>1361</v>
       </c>
@@ -20503,7 +20546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>1367</v>
       </c>
@@ -20532,7 +20575,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>1372</v>
       </c>
@@ -20561,7 +20604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>1377</v>
       </c>
@@ -20590,7 +20633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>1382</v>
       </c>
@@ -20619,7 +20662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>1387</v>
       </c>
@@ -20648,7 +20691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>1392</v>
       </c>
@@ -20675,7 +20718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>1396</v>
       </c>
@@ -20704,7 +20747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>1401</v>
       </c>
@@ -20733,7 +20776,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>1406</v>
       </c>
@@ -20762,7 +20805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>1411</v>
       </c>
@@ -20791,7 +20834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>1416</v>
       </c>
@@ -20820,7 +20863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>1421</v>
       </c>
@@ -20849,7 +20892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>1426</v>
       </c>
@@ -20878,7 +20921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>1431</v>
       </c>
@@ -20907,7 +20950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>1436</v>
       </c>
@@ -20936,7 +20979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>1441</v>
       </c>
@@ -20965,7 +21008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>1447</v>
       </c>
@@ -20994,7 +21037,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>1452</v>
       </c>
@@ -21023,7 +21066,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>1457</v>
       </c>
@@ -21052,7 +21095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>1463</v>
       </c>
@@ -21081,7 +21124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>1468</v>
       </c>
@@ -21110,7 +21153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>1472</v>
       </c>
@@ -21139,7 +21182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>1477</v>
       </c>
@@ -21168,7 +21211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>1482</v>
       </c>
@@ -21197,7 +21240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>1487</v>
       </c>
@@ -21226,7 +21269,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>1492</v>
       </c>
@@ -21255,7 +21298,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>1497</v>
       </c>
@@ -21284,7 +21327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>1502</v>
       </c>
@@ -21313,7 +21356,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>1507</v>
       </c>
@@ -21342,7 +21385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>1512</v>
       </c>
@@ -21371,7 +21414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>1517</v>
       </c>
@@ -21400,7 +21443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>1522</v>
       </c>
@@ -21429,7 +21472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>1528</v>
       </c>
@@ -21458,7 +21501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>1533</v>
       </c>
@@ -21487,7 +21530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>1538</v>
       </c>
@@ -21516,7 +21559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>1543</v>
       </c>
@@ -21545,7 +21588,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>1548</v>
       </c>
@@ -21574,7 +21617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>1553</v>
       </c>
@@ -21603,7 +21646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>1558</v>
       </c>
@@ -21632,7 +21675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>1563</v>
       </c>
@@ -21661,7 +21704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>1568</v>
       </c>
@@ -21690,7 +21733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>1573</v>
       </c>
@@ -21719,7 +21762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>1578</v>
       </c>
@@ -21748,7 +21791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>1584</v>
       </c>
@@ -21777,7 +21820,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>1589</v>
       </c>
@@ -21806,7 +21849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>1594</v>
       </c>
@@ -21835,7 +21878,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>1598</v>
       </c>
@@ -21864,7 +21907,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>1603</v>
       </c>
@@ -21893,7 +21936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>1608</v>
       </c>
@@ -21922,7 +21965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>1613</v>
       </c>
@@ -21951,7 +21994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>1617</v>
       </c>
@@ -21980,7 +22023,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>1623</v>
       </c>
@@ -22009,7 +22052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>1628</v>
       </c>
@@ -22038,7 +22081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>1633</v>
       </c>
@@ -22067,7 +22110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>1638</v>
       </c>
@@ -22096,7 +22139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>1643</v>
       </c>
@@ -22125,7 +22168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>1649</v>
       </c>
@@ -22154,7 +22197,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>1654</v>
       </c>
@@ -22183,7 +22226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>1659</v>
       </c>
@@ -22212,7 +22255,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>1664</v>
       </c>
@@ -22241,7 +22284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>1669</v>
       </c>
@@ -22270,7 +22313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>1674</v>
       </c>
@@ -22299,7 +22342,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>1679</v>
       </c>
@@ -22328,7 +22371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>1684</v>
       </c>
@@ -22357,7 +22400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>1688</v>
       </c>
@@ -22386,7 +22429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>1693</v>
       </c>
@@ -22415,7 +22458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>1698</v>
       </c>
@@ -22444,7 +22487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>1703</v>
       </c>
@@ -22473,7 +22516,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>1708</v>
       </c>
@@ -22502,7 +22545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>1714</v>
       </c>
@@ -22531,7 +22574,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>1720</v>
       </c>
@@ -22560,7 +22603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>1725</v>
       </c>
@@ -22589,7 +22632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>1730</v>
       </c>
@@ -22618,7 +22661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>1735</v>
       </c>
@@ -22647,7 +22690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>1740</v>
       </c>
@@ -22676,7 +22719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>1745</v>
       </c>
@@ -22705,7 +22748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>1749</v>
       </c>
@@ -22734,7 +22777,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>1754</v>
       </c>
@@ -22763,7 +22806,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>1759</v>
       </c>
@@ -22792,7 +22835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>1764</v>
       </c>
@@ -22821,7 +22864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>1770</v>
       </c>
@@ -22850,7 +22893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>1775</v>
       </c>
@@ -22879,7 +22922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>1780</v>
       </c>
@@ -22908,7 +22951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>1785</v>
       </c>
@@ -22937,7 +22980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>1790</v>
       </c>
@@ -22966,7 +23009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>1795</v>
       </c>
@@ -22995,7 +23038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>1800</v>
       </c>
@@ -23024,7 +23067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>1805</v>
       </c>
@@ -23053,7 +23096,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>1810</v>
       </c>
@@ -23082,7 +23125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>1815</v>
       </c>
@@ -23111,7 +23154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>1820</v>
       </c>
@@ -23140,7 +23183,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>1825</v>
       </c>
@@ -23169,7 +23212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>1830</v>
       </c>
@@ -23198,7 +23241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>1835</v>
       </c>
@@ -23227,7 +23270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>1840</v>
       </c>
@@ -23256,7 +23299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>1845</v>
       </c>
@@ -23285,7 +23328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>1849</v>
       </c>
@@ -23314,7 +23357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>1854</v>
       </c>
@@ -23343,7 +23386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>1859</v>
       </c>
@@ -23372,7 +23415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>1864</v>
       </c>
@@ -23401,7 +23444,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>1869</v>
       </c>
@@ -23430,7 +23473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>1874</v>
       </c>
@@ -23459,7 +23502,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>1879</v>
       </c>
@@ -23488,7 +23531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>1884</v>
       </c>
@@ -23517,7 +23560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>1889</v>
       </c>
@@ -23546,7 +23589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>1893</v>
       </c>
@@ -23575,7 +23618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>1898</v>
       </c>
@@ -23604,7 +23647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>1903</v>
       </c>
@@ -23633,7 +23676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>1909</v>
       </c>
@@ -23662,7 +23705,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>1914</v>
       </c>
@@ -23691,7 +23734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>1919</v>
       </c>
@@ -23720,7 +23763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>1924</v>
       </c>
@@ -23749,7 +23792,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>1929</v>
       </c>
@@ -23778,7 +23821,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>1934</v>
       </c>
@@ -23807,7 +23850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>1939</v>
       </c>
@@ -23836,7 +23879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>1944</v>
       </c>
@@ -23865,7 +23908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>1950</v>
       </c>
@@ -23894,7 +23937,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>1955</v>
       </c>
@@ -23923,7 +23966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>1960</v>
       </c>
@@ -23952,7 +23995,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>1965</v>
       </c>
@@ -23981,7 +24024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>1970</v>
       </c>
@@ -24010,7 +24053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>1975</v>
       </c>
@@ -24039,7 +24082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>1980</v>
       </c>
@@ -24068,7 +24111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>1985</v>
       </c>
@@ -24097,7 +24140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>1990</v>
       </c>
@@ -24126,7 +24169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>1995</v>
       </c>
@@ -24155,7 +24198,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>2000</v>
       </c>
@@ -24184,7 +24227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>2005</v>
       </c>
@@ -24213,7 +24256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>2011</v>
       </c>
@@ -24242,7 +24285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>2017</v>
       </c>
@@ -24271,7 +24314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>2022</v>
       </c>
@@ -24300,7 +24343,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>2027</v>
       </c>
@@ -24329,7 +24372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>2032</v>
       </c>
@@ -24358,7 +24401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>2037</v>
       </c>
@@ -24387,7 +24430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>2043</v>
       </c>
@@ -24416,7 +24459,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>2048</v>
       </c>
@@ -24445,7 +24488,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>2054</v>
       </c>
@@ -24474,7 +24517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>2059</v>
       </c>
@@ -24503,7 +24546,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>2064</v>
       </c>
@@ -24532,7 +24575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>2069</v>
       </c>
@@ -24561,7 +24604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>2074</v>
       </c>
@@ -24590,7 +24633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>2079</v>
       </c>
@@ -24619,7 +24662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>2084</v>
       </c>
@@ -24648,7 +24691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>2089</v>
       </c>
@@ -24677,7 +24720,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>2094</v>
       </c>
@@ -24706,7 +24749,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>2099</v>
       </c>
@@ -24735,7 +24778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>2104</v>
       </c>
@@ -24764,7 +24807,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>2109</v>
       </c>
@@ -24793,7 +24836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>2114</v>
       </c>
@@ -24822,7 +24865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>2119</v>
       </c>
@@ -24851,7 +24894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>2124</v>
       </c>
@@ -24880,7 +24923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>2129</v>
       </c>
@@ -24909,7 +24952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>2134</v>
       </c>
@@ -24938,7 +24981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>2140</v>
       </c>
@@ -24967,7 +25010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>2145</v>
       </c>
@@ -24996,7 +25039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>2150</v>
       </c>
@@ -25025,7 +25068,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>2155</v>
       </c>
@@ -25054,7 +25097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>2160</v>
       </c>
@@ -25083,7 +25126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>2165</v>
       </c>
@@ -25112,7 +25155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>2170</v>
       </c>
@@ -25141,7 +25184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>2175</v>
       </c>
@@ -25170,7 +25213,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>2180</v>
       </c>
@@ -25199,7 +25242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>2185</v>
       </c>
@@ -25228,7 +25271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>2191</v>
       </c>
@@ -25257,7 +25300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>2196</v>
       </c>
@@ -25286,7 +25329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>2201</v>
       </c>
@@ -25315,7 +25358,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>2206</v>
       </c>
@@ -25344,7 +25387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>2211</v>
       </c>
@@ -25373,7 +25416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>2216</v>
       </c>
@@ -25402,7 +25445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>2221</v>
       </c>
@@ -25431,7 +25474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>2226</v>
       </c>
@@ -25460,7 +25503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>2231</v>
       </c>
@@ -25489,7 +25532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>2236</v>
       </c>
@@ -25518,7 +25561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>2242</v>
       </c>
@@ -25547,7 +25590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>2247</v>
       </c>
@@ -25576,7 +25619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>2252</v>
       </c>
@@ -25605,7 +25648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>2257</v>
       </c>
@@ -25634,7 +25677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>2262</v>
       </c>
@@ -25663,7 +25706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>2268</v>
       </c>
@@ -25692,7 +25735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>2273</v>
       </c>
@@ -25721,7 +25764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>2278</v>
       </c>
@@ -25750,7 +25793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>2283</v>
       </c>
@@ -25779,7 +25822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>2288</v>
       </c>
@@ -25808,7 +25851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>2293</v>
       </c>
@@ -25837,7 +25880,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>2298</v>
       </c>
@@ -25866,7 +25909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>2303</v>
       </c>
@@ -25895,7 +25938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>2308</v>
       </c>
@@ -25924,7 +25967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>2313</v>
       </c>
@@ -25953,7 +25996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>2318</v>
       </c>
@@ -25982,7 +26025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>2323</v>
       </c>
@@ -26011,7 +26054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>2329</v>
       </c>
@@ -26040,7 +26083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>2334</v>
       </c>
@@ -26069,7 +26112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>2339</v>
       </c>
@@ -26098,7 +26141,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>2344</v>
       </c>
@@ -26127,7 +26170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>2349</v>
       </c>
@@ -26156,7 +26199,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>2355</v>
       </c>
@@ -26185,7 +26228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>2360</v>
       </c>
@@ -26214,7 +26257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>2365</v>
       </c>
@@ -26243,7 +26286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>2370</v>
       </c>
@@ -26272,7 +26315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>2375</v>
       </c>
@@ -26301,7 +26344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>2380</v>
       </c>
@@ -26330,7 +26373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>2385</v>
       </c>
@@ -26359,7 +26402,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>2390</v>
       </c>
@@ -26388,7 +26431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>2395</v>
       </c>
@@ -26417,7 +26460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>2400</v>
       </c>
@@ -26446,7 +26489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>2405</v>
       </c>
@@ -26475,7 +26518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>2410</v>
       </c>
@@ -26504,7 +26547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>2415</v>
       </c>
@@ -26533,7 +26576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>2420</v>
       </c>
@@ -26562,7 +26605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>2425</v>
       </c>
@@ -26591,7 +26634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>2431</v>
       </c>
@@ -26620,7 +26663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>2436</v>
       </c>
@@ -26649,7 +26692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>2442</v>
       </c>
@@ -26678,7 +26721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>2447</v>
       </c>
@@ -26707,7 +26750,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>2451</v>
       </c>
@@ -26736,7 +26779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>2456</v>
       </c>
@@ -26765,7 +26808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>2461</v>
       </c>
@@ -26794,7 +26837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>2466</v>
       </c>
@@ -26823,7 +26866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>2471</v>
       </c>
@@ -26852,7 +26895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>2476</v>
       </c>
@@ -26881,7 +26924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>2481</v>
       </c>
@@ -26910,7 +26953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>2486</v>
       </c>
@@ -26939,7 +26982,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>2491</v>
       </c>
@@ -26968,7 +27011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>2496</v>
       </c>
@@ -26997,7 +27040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>2501</v>
       </c>
@@ -27026,7 +27069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>2506</v>
       </c>
@@ -27055,7 +27098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>2511</v>
       </c>
@@ -27084,7 +27127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>2516</v>
       </c>
@@ -27113,7 +27156,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>2521</v>
       </c>
@@ -27142,7 +27185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>2526</v>
       </c>
@@ -27171,7 +27214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>2531</v>
       </c>
@@ -27200,7 +27243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>2536</v>
       </c>
@@ -27229,7 +27272,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>2542</v>
       </c>
@@ -27258,7 +27301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>2547</v>
       </c>
@@ -27287,7 +27330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>2552</v>
       </c>
@@ -27316,7 +27359,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>2557</v>
       </c>
@@ -27345,7 +27388,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>2562</v>
       </c>
@@ -27374,7 +27417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>2567</v>
       </c>
@@ -27403,7 +27446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>2572</v>
       </c>
@@ -27432,7 +27475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>2577</v>
       </c>
@@ -27461,7 +27504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>2582</v>
       </c>
@@ -27490,7 +27533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>2586</v>
       </c>
@@ -27519,7 +27562,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>2590</v>
       </c>
@@ -27548,7 +27591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>2595</v>
       </c>
@@ -27577,7 +27620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>2600</v>
       </c>
@@ -27606,7 +27649,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>2605</v>
       </c>
@@ -27635,7 +27678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>2610</v>
       </c>
@@ -27664,7 +27707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>2615</v>
       </c>
@@ -27693,7 +27736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>2620</v>
       </c>
@@ -27722,7 +27765,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>2625</v>
       </c>
@@ -27751,7 +27794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>2629</v>
       </c>
@@ -27780,7 +27823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>2634</v>
       </c>
@@ -27809,7 +27852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>2639</v>
       </c>
@@ -27838,7 +27881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>2644</v>
       </c>
@@ -27867,7 +27910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>2649</v>
       </c>
@@ -27896,7 +27939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>2654</v>
       </c>
@@ -27925,7 +27968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>2659</v>
       </c>
@@ -27954,7 +27997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>2664</v>
       </c>
@@ -27983,7 +28026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>2669</v>
       </c>
@@ -28012,7 +28055,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>2674</v>
       </c>
@@ -28041,7 +28084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>2679</v>
       </c>
@@ -28068,7 +28111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>2683</v>
       </c>
@@ -28097,7 +28140,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>2688</v>
       </c>
@@ -28126,7 +28169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>2693</v>
       </c>
@@ -28155,7 +28198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>2698</v>
       </c>
@@ -28184,7 +28227,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>2704</v>
       </c>
@@ -28213,7 +28256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>2710</v>
       </c>
@@ -28242,7 +28285,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>2715</v>
       </c>
@@ -28271,7 +28314,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>2720</v>
       </c>
@@ -28300,7 +28343,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>2725</v>
       </c>
@@ -28329,7 +28372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>2730</v>
       </c>
@@ -28358,7 +28401,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>2736</v>
       </c>
@@ -28387,7 +28430,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>2741</v>
       </c>
@@ -28416,7 +28459,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>2747</v>
       </c>
@@ -28445,7 +28488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>2752</v>
       </c>
@@ -28474,7 +28517,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>2757</v>
       </c>
@@ -28503,7 +28546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>2762</v>
       </c>
@@ -28532,7 +28575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>2767</v>
       </c>
@@ -28561,7 +28604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>2772</v>
       </c>
@@ -28590,7 +28633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>2777</v>
       </c>
@@ -28619,7 +28662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>2782</v>
       </c>
@@ -28648,7 +28691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>2787</v>
       </c>
@@ -28677,7 +28720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>2792</v>
       </c>
@@ -28706,7 +28749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>2797</v>
       </c>
@@ -28735,7 +28778,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>2801</v>
       </c>
@@ -28764,7 +28807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>2806</v>
       </c>
@@ -28793,7 +28836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>2811</v>
       </c>
@@ -28822,7 +28865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>2816</v>
       </c>
@@ -28851,7 +28894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>2821</v>
       </c>
@@ -28880,7 +28923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>2826</v>
       </c>
@@ -28909,7 +28952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>2831</v>
       </c>
@@ -28938,7 +28981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>2836</v>
       </c>
@@ -28967,7 +29010,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>2841</v>
       </c>
@@ -28996,7 +29039,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>2846</v>
       </c>
@@ -29025,7 +29068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>2851</v>
       </c>
@@ -29054,7 +29097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>2856</v>
       </c>
@@ -29083,7 +29126,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>2861</v>
       </c>
@@ -29112,7 +29155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>2866</v>
       </c>
@@ -29141,7 +29184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>2871</v>
       </c>
@@ -29170,7 +29213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>2876</v>
       </c>
@@ -29199,7 +29242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>2881</v>
       </c>
@@ -29228,7 +29271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>2886</v>
       </c>
@@ -29257,7 +29300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>2890</v>
       </c>
@@ -29286,7 +29329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>2894</v>
       </c>
@@ -29315,7 +29358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>2899</v>
       </c>
@@ -29344,7 +29387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>2904</v>
       </c>
@@ -29373,7 +29416,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>2909</v>
       </c>
@@ -29402,7 +29445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>2914</v>
       </c>
@@ -29431,7 +29474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>2919</v>
       </c>
@@ -29460,7 +29503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>2924</v>
       </c>
@@ -29489,7 +29532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>2929</v>
       </c>
@@ -29518,7 +29561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>2934</v>
       </c>
@@ -29547,7 +29590,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>2939</v>
       </c>
@@ -29576,7 +29619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>2944</v>
       </c>
@@ -29605,7 +29648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>2948</v>
       </c>
@@ -29634,7 +29677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>2953</v>
       </c>
@@ -29663,7 +29706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>2957</v>
       </c>
@@ -29692,7 +29735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>2962</v>
       </c>
@@ -29721,7 +29764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>2967</v>
       </c>
@@ -29750,7 +29793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>2972</v>
       </c>
@@ -29779,7 +29822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>2977</v>
       </c>
@@ -29808,7 +29851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>2982</v>
       </c>
@@ -29837,7 +29880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>2987</v>
       </c>
@@ -29866,7 +29909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>2992</v>
       </c>
@@ -29895,7 +29938,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>2997</v>
       </c>
@@ -29924,7 +29967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>3002</v>
       </c>
@@ -29953,7 +29996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>3007</v>
       </c>
@@ -29982,7 +30025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>3012</v>
       </c>
@@ -30011,7 +30054,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>3016</v>
       </c>
@@ -30040,7 +30083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>3021</v>
       </c>
@@ -30069,7 +30112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>3024</v>
       </c>
@@ -30098,7 +30141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>3030</v>
       </c>
@@ -30127,7 +30170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>3035</v>
       </c>
@@ -30156,7 +30199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>3040</v>
       </c>
@@ -30185,7 +30228,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>3045</v>
       </c>
@@ -30214,7 +30257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>3050</v>
       </c>
@@ -30243,7 +30286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>3055</v>
       </c>
@@ -30272,7 +30315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>3060</v>
       </c>
@@ -30301,7 +30344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>3065</v>
       </c>
@@ -30330,7 +30373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>3070</v>
       </c>
@@ -30359,7 +30402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>3075</v>
       </c>
@@ -30388,7 +30431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>3080</v>
       </c>
@@ -30417,7 +30460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>3085</v>
       </c>
@@ -30446,7 +30489,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>3090</v>
       </c>
@@ -30475,7 +30518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>3095</v>
       </c>
@@ -30504,7 +30547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>3099</v>
       </c>
@@ -30533,7 +30576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>3104</v>
       </c>
@@ -30562,7 +30605,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>3109</v>
       </c>
@@ -30591,7 +30634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>3114</v>
       </c>
@@ -30620,7 +30663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>3119</v>
       </c>
@@ -30649,7 +30692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>3124</v>
       </c>
@@ -30678,7 +30721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>3129</v>
       </c>
@@ -30707,7 +30750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>3134</v>
       </c>
@@ -30736,7 +30779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>3139</v>
       </c>
@@ -30765,7 +30808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>3144</v>
       </c>
@@ -30794,7 +30837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>3149</v>
       </c>
@@ -30823,7 +30866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="621" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>3154</v>
       </c>
@@ -30852,7 +30895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>3160</v>
       </c>
@@ -30881,7 +30924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>3164</v>
       </c>
@@ -30910,7 +30953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>3169</v>
       </c>
@@ -30939,7 +30982,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>3174</v>
       </c>
@@ -30968,7 +31011,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>3180</v>
       </c>
@@ -30997,7 +31040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>3185</v>
       </c>
@@ -31026,7 +31069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>3190</v>
       </c>
@@ -31055,7 +31098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>3195</v>
       </c>
@@ -31084,7 +31127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>3200</v>
       </c>
@@ -31113,7 +31156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>3205</v>
       </c>
@@ -31142,7 +31185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>3210</v>
       </c>
@@ -31171,7 +31214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>3215</v>
       </c>
@@ -31200,7 +31243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>3220</v>
       </c>
@@ -31229,7 +31272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>3225</v>
       </c>
@@ -31258,7 +31301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>3230</v>
       </c>
@@ -31287,7 +31330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>3235</v>
       </c>
@@ -31316,7 +31359,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>3239</v>
       </c>
@@ -31345,7 +31388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>3244</v>
       </c>
@@ -31374,7 +31417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>3249</v>
       </c>
@@ -31403,7 +31446,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>3254</v>
       </c>
@@ -31432,7 +31475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>3259</v>
       </c>
@@ -31461,7 +31504,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>3264</v>
       </c>
@@ -31490,7 +31533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>3269</v>
       </c>
@@ -31519,7 +31562,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>3274</v>
       </c>
@@ -31548,7 +31591,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="646" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>3279</v>
       </c>
@@ -31577,7 +31620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>3284</v>
       </c>
@@ -31606,7 +31649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>3289</v>
       </c>
@@ -31635,7 +31678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>3294</v>
       </c>
@@ -31664,7 +31707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>3299</v>
       </c>
@@ -31693,7 +31736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>3304</v>
       </c>
@@ -31722,7 +31765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>3309</v>
       </c>
@@ -31751,7 +31794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>3314</v>
       </c>
@@ -31780,7 +31823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>3319</v>
       </c>
@@ -31809,7 +31852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>3324</v>
       </c>
@@ -31838,7 +31881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>3329</v>
       </c>
@@ -31867,7 +31910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>3334</v>
       </c>
@@ -31896,7 +31939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>3339</v>
       </c>
@@ -31925,7 +31968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>3344</v>
       </c>
@@ -31954,7 +31997,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>3349</v>
       </c>
@@ -31983,7 +32026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>3354</v>
       </c>
@@ -32012,7 +32055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>3359</v>
       </c>
@@ -32041,7 +32084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>3364</v>
       </c>
@@ -32070,7 +32113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>3369</v>
       </c>
@@ -32099,7 +32142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>3374</v>
       </c>
@@ -32128,7 +32171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>3379</v>
       </c>
@@ -32157,7 +32200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>3384</v>
       </c>
@@ -32186,7 +32229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>3388</v>
       </c>
@@ -32215,7 +32258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>3393</v>
       </c>
@@ -32244,7 +32287,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>3398</v>
       </c>
@@ -32273,7 +32316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>3403</v>
       </c>
@@ -32302,7 +32345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>3406</v>
       </c>
@@ -32331,7 +32374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>3411</v>
       </c>
@@ -32360,7 +32403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>3416</v>
       </c>
@@ -32389,7 +32432,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>3421</v>
       </c>
@@ -32418,7 +32461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>3426</v>
       </c>
@@ -32447,7 +32490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>3431</v>
       </c>
@@ -32476,7 +32519,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>3436</v>
       </c>
@@ -32505,7 +32548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>3441</v>
       </c>
@@ -32534,7 +32577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>3446</v>
       </c>
@@ -32563,7 +32606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>3451</v>
       </c>
@@ -32592,7 +32635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>3456</v>
       </c>
@@ -32621,7 +32664,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>3460</v>
       </c>
@@ -32650,7 +32693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>3465</v>
       </c>
@@ -32679,7 +32722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>3470</v>
       </c>
@@ -32708,7 +32751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>3474</v>
       </c>
@@ -32737,7 +32780,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>3480</v>
       </c>
@@ -32766,7 +32809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>3485</v>
       </c>
@@ -32795,7 +32838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>3490</v>
       </c>
@@ -32824,7 +32867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>3495</v>
       </c>
@@ -32853,7 +32896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>3500</v>
       </c>
@@ -32882,7 +32925,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>3505</v>
       </c>
@@ -32911,7 +32954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>3509</v>
       </c>
@@ -32940,7 +32983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>3514</v>
       </c>
@@ -32969,7 +33012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>3519</v>
       </c>
@@ -32998,7 +33041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>3524</v>
       </c>
@@ -33027,7 +33070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>3529</v>
       </c>
@@ -33056,7 +33099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>3534</v>
       </c>
@@ -33085,7 +33128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="699" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>3539</v>
       </c>
@@ -33114,7 +33157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="700" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>3544</v>
       </c>
@@ -33143,7 +33186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>3549</v>
       </c>
@@ -33172,7 +33215,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="702" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>3552</v>
       </c>
@@ -33201,7 +33244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>3557</v>
       </c>
@@ -33230,7 +33273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="704" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>3561</v>
       </c>
@@ -33259,7 +33302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>3566</v>
       </c>
@@ -33288,7 +33331,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="706" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>3571</v>
       </c>
@@ -33317,7 +33360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="707" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>3576</v>
       </c>
@@ -33346,7 +33389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>3581</v>
       </c>
@@ -33375,7 +33418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="709" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>3586</v>
       </c>
@@ -33404,7 +33447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="710" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>3591</v>
       </c>
@@ -33433,7 +33476,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="711" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>3596</v>
       </c>
@@ -33462,7 +33505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="712" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>3601</v>
       </c>
@@ -33491,7 +33534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="713" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>3606</v>
       </c>
@@ -33520,7 +33563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>3611</v>
       </c>
@@ -33549,7 +33592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>3616</v>
       </c>
@@ -33578,7 +33621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>3620</v>
       </c>
@@ -33607,7 +33650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="717" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>3624</v>
       </c>
@@ -33636,7 +33679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>3629</v>
       </c>
@@ -33665,7 +33708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>3634</v>
       </c>
@@ -33694,7 +33737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="720" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>3639</v>
       </c>
@@ -33723,7 +33766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>3644</v>
       </c>
@@ -33752,7 +33795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="722" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>3648</v>
       </c>
@@ -33781,7 +33824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>3653</v>
       </c>
@@ -33810,7 +33853,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="724" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>3658</v>
       </c>
@@ -33839,7 +33882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>3663</v>
       </c>
@@ -33868,7 +33911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>3668</v>
       </c>
@@ -33897,7 +33940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="727" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>3673</v>
       </c>
@@ -33926,7 +33969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>3678</v>
       </c>
@@ -33955,7 +33998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>3682</v>
       </c>
@@ -33984,7 +34027,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="730" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>3687</v>
       </c>
@@ -34013,7 +34056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="731" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>3692</v>
       </c>
@@ -34042,7 +34085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="732" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>3697</v>
       </c>
@@ -34071,7 +34114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="733" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>3702</v>
       </c>
@@ -34100,7 +34143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="734" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>3707</v>
       </c>
@@ -34129,7 +34172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="735" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>3712</v>
       </c>
@@ -34158,7 +34201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="736" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>3717</v>
       </c>
@@ -34187,7 +34230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>3722</v>
       </c>
@@ -34216,7 +34259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>3727</v>
       </c>
@@ -34245,7 +34288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>3731</v>
       </c>
@@ -34274,7 +34317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>3736</v>
       </c>
@@ -34303,7 +34346,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="741" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>3741</v>
       </c>
@@ -34332,7 +34375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>3746</v>
       </c>
@@ -34361,7 +34404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="743" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>3751</v>
       </c>
@@ -34390,7 +34433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>3757</v>
       </c>
@@ -34419,7 +34462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>3762</v>
       </c>
@@ -34448,7 +34491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>3765</v>
       </c>
@@ -34477,7 +34520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="747" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>3769</v>
       </c>
@@ -34506,7 +34549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    <row r="748" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>3774</v>
       </c>
@@ -34535,7 +34578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>3779</v>
       </c>
@@ -34564,7 +34607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="750" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>3783</v>
       </c>
@@ -34593,7 +34636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>3788</v>
       </c>
@@ -34622,7 +34665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="752" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>3793</v>
       </c>
@@ -34651,7 +34694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="753" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>3798</v>
       </c>
@@ -34680,7 +34723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="754" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>3803</v>
       </c>
@@ -34709,7 +34752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="755" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>3808</v>
       </c>
@@ -34738,7 +34781,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="756" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>3812</v>
       </c>
@@ -34767,7 +34810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="757" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>3817</v>
       </c>
@@ -34796,7 +34839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="758" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>3822</v>
       </c>
@@ -34825,7 +34868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="759" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>3828</v>
       </c>
@@ -34854,7 +34897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>3833</v>
       </c>
@@ -34883,7 +34926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>3838</v>
       </c>
@@ -34912,7 +34955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>3841</v>
       </c>
@@ -34941,7 +34984,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>3846</v>
       </c>
@@ -34970,7 +35013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="764" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>3851</v>
       </c>
@@ -34999,7 +35042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>3856</v>
       </c>
@@ -35028,7 +35071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
         <v>3861</v>
       </c>
@@ -35057,7 +35100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="767" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
         <v>3865</v>
       </c>
@@ -35086,7 +35129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="768" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>3870</v>
       </c>
@@ -35115,7 +35158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
         <v>3875</v>
       </c>
@@ -35144,7 +35187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="770" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
         <v>3879</v>
       </c>
@@ -35173,7 +35216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
         <v>3883</v>
       </c>
@@ -35202,7 +35245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
         <v>3889</v>
       </c>
@@ -35231,7 +35274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
         <v>3894</v>
       </c>
@@ -35260,7 +35303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="774" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
         <v>3898</v>
       </c>
@@ -35289,7 +35332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="775" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="775" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
         <v>3903</v>
       </c>
@@ -35318,7 +35361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="776" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="776" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
         <v>3908</v>
       </c>
@@ -35347,7 +35390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="777" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
         <v>3913</v>
       </c>
@@ -35376,7 +35419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
         <v>3918</v>
       </c>
@@ -35405,7 +35448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="779" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="779" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
         <v>3922</v>
       </c>
@@ -35434,7 +35477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="780" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
         <v>3927</v>
       </c>
@@ -35463,7 +35506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="781" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
         <v>3932</v>
       </c>
@@ -35492,7 +35535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="782" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
         <v>3937</v>
       </c>
@@ -35521,7 +35564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="783" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
         <v>3942</v>
       </c>
@@ -35550,7 +35593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="784" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="784" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
         <v>3947</v>
       </c>
@@ -35579,7 +35622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="785" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
         <v>3952</v>
       </c>
@@ -35608,7 +35651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
         <v>3957</v>
       </c>
@@ -35637,7 +35680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="787" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
         <v>3961</v>
       </c>
@@ -35666,7 +35709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
         <v>3966</v>
       </c>
@@ -35695,7 +35738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
         <v>3970</v>
       </c>
